--- a/Diagramme de Gantt project.xlsx
+++ b/Diagramme de Gantt project.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrien\Desktop\Clef USB\1) IUT Cachan\1) PROJET fin LP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEMP.GEII2.038\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93080EEE-43EC-4369-A695-A32C28254AC7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Planificateur de projet" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="RéelAuDelà">PériodeDansRéel*('Planificateur de projet'!$E1&gt;0)</definedName>
     <definedName name="TitreRégion..BO60">'Planificateur de projet'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -70,36 +69,6 @@
   </si>
   <si>
     <t>Début réel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>accompli</t>
-    </r>
   </si>
   <si>
     <r>
@@ -147,9 +116,6 @@
     <t>Optimisation</t>
   </si>
   <si>
-    <t>Fonctionalité supplémentaires</t>
-  </si>
-  <si>
     <t>Bonus</t>
   </si>
   <si>
@@ -163,12 +129,18 @@
   </si>
   <si>
     <t>Remarque : Version valide à présentée le 5 juin 2018</t>
+  </si>
+  <si>
+    <t>Durée tâche</t>
+  </si>
+  <si>
+    <t>Raspberry PI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,7 +428,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,12 +492,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -538,9 +522,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -553,70 +534,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% accompli" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Activité" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Contrôle de mise en évidence de la période" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="En-têtes de période" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="En-têtes de projet" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Étiquette" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Légende de ce qui a été accompli" xfId="15" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Légende de ce qui a été accompli (au-delà du plan)" xfId="17" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Légende du % accompli (au-delà du plan)" xfId="18" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Légende du plan" xfId="14" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="% accompli" xfId="16"/>
+    <cellStyle name="Activité" xfId="2"/>
+    <cellStyle name="Contrôle de mise en évidence de la période" xfId="7"/>
+    <cellStyle name="En-têtes de période" xfId="3"/>
+    <cellStyle name="En-têtes de projet" xfId="4"/>
+    <cellStyle name="Étiquette" xfId="5"/>
+    <cellStyle name="Légende de ce qui a été accompli" xfId="15"/>
+    <cellStyle name="Légende de ce qui a été accompli (au-delà du plan)" xfId="17"/>
+    <cellStyle name="Légende du % accompli (au-delà du plan)" xfId="18"/>
+    <cellStyle name="Légende du plan" xfId="14"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Pourcentage accompli" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Pourcentage accompli" xfId="6"/>
     <cellStyle name="Texte explicatif" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Titre" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Titre 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Titre 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Titre 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Valeur de la période" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Valeur de la période" xfId="13"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -728,6 +668,35 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -969,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
@@ -977,20 +946,20 @@
   <dimension ref="B1:AE20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+      <selection activeCell="AK16" sqref="AK16:AK17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="2.77734375" style="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="2:31" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1000,68 +969,68 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:31" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+    <row r="2" spans="2:31" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="15">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="25"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="18"/>
       <c r="V2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-    </row>
-    <row r="3" spans="2:31" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+    </row>
+    <row r="3" spans="2:31" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1087,13 +1056,13 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="34"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+    <row r="4" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1167,30 +1136,30 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
@@ -1204,12 +1173,12 @@
         <v>1</v>
       </c>
       <c r="G6" s="8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -1218,18 +1187,18 @@
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -1238,18 +1207,18 @@
         <v>2</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -1267,9 +1236,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
@@ -1278,18 +1247,18 @@
         <v>11</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7">
         <v>8</v>
@@ -1298,18 +1267,18 @@
         <v>2</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7">
         <v>15</v>
@@ -1318,18 +1287,18 @@
         <v>2</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7">
         <v>17</v>
@@ -1338,18 +1307,18 @@
         <v>3</v>
       </c>
       <c r="E13" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>20</v>
@@ -1358,18 +1327,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>22</v>
@@ -1378,108 +1347,108 @@
         <v>2</v>
       </c>
       <c r="E15" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
       </c>
       <c r="E16" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AE2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:AE16">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>PourcentageAccompli</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>PourcentageAccompliAuDelà</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>Réel</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>RéelAuDelà</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>H$4=période_sélectionnée</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:AE17">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:AE4">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>H$4=période_sélectionnée</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="15">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Le planificateur de projet utilise des périodes comme intervalles. Début=1 et Durée=5 signifient que le projet inclut 5 périodes à partir de la première période. Entrez des données en commençant par la cellule B5 pour mettre à jour le graphique_x000a_" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Tapez une valeur de 1 à 60 ou sélectionnez une période dans la liste. Appuyez sur ANNULER, sur ALT+FLÈCHE BAS, puis sur ENTRÉE pour sélectionner une valeur" prompt="Entrez une période dans la plage de 1 à 60, ou sélectionnez une période dans la liste. Appuyez sur ALT+FLÈCHE BAS pour parcourir la liste, puis sur ENTRÉE pour sélectionner une valeur" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Le planificateur de projet utilise des périodes comme intervalles. Début=1 et Durée=5 signifient que le projet inclut 5 périodes à partir de la première période. Entrez des données en commençant par la cellule B5 pour mettre à jour le graphique_x000a_" sqref="A1"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Tapez une valeur de 1 à 60 ou sélectionnez une période dans la liste. Appuyez sur ANNULER, sur ALT+FLÈCHE BAS, puis sur ENTRÉE pour sélectionner une valeur" prompt="Entrez une période dans la plage de 1 à 60, ou sélectionnez une période dans la liste. Appuyez sur ALT+FLÈCHE BAS pour parcourir la liste, puis sur ENTRÉE pour sélectionner une valeur" sqref="H2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée du plan" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle au-delà du plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les périodes sont représentées de 1 à 60, de la cellule H4 à la cellule BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez l’activité dans la colonne B, en commençant par la cellule B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début du plan dans la colonne C, en commençant par la cellule C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée du plan dans la colonne D, en commençant par la cellule D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début réelle dans la colonne E, en commençant par la cellule E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée réelle dans la colonne F, en commençant par la cellule F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le pourcentage du projet terminée dans la colonne G, en commençant par la cellule G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Titre du projet. Entrez un nouveau titre dans cette cellule. Mettez en évidence une période dans H2. La légende du graphique figure dans J2 à AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sélectionnez une période à mettre en évidence dans la cellule H2. Une légende de graphique figure dans J2 à AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée du plan" sqref="J2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle" sqref="P2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli" sqref="U2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle au-delà du plan" sqref="Z2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les périodes sont représentées de 1 à 60, de la cellule H4 à la cellule BO4 " sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez l’activité dans la colonne B, en commençant par la cellule B5_x000a_" sqref="B3:B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début du plan dans la colonne C, en commençant par la cellule C5" sqref="C3:C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée du plan dans la colonne D, en commençant par la cellule D5" sqref="D3:D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début réelle dans la colonne E, en commençant par la cellule E5" sqref="E3:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée réelle dans la colonne F, en commençant par la cellule F5" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le pourcentage du projet terminée dans la colonne G, en commençant par la cellule G5" sqref="G3:G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Titre du projet. Entrez un nouveau titre dans cette cellule. Mettez en évidence une période dans H2. La légende du graphique figure dans J2 à AI2" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sélectionnez une période à mettre en évidence dans la cellule H2. Une légende de graphique figure dans J2 à AI2" sqref="B2:F2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
